--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T00:55:10+00:00</t>
+    <t>2023-02-20T01:40:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:40:12+00:00</t>
+    <t>2023-02-20T01:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T01:58:23+00:00</t>
+    <t>2023-02-20T02:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T02:21:28+00:00</t>
+    <t>2023-02-20T12:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T12:30:13+00:00</t>
+    <t>2023-03-03T05:49:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-obs-status-cs.xlsx
+++ b/CodeSystem-obs-status-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
